--- a/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,7 +482,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -489,7 +492,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,27 +509,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351</t>
         </is>
       </c>
     </row>
@@ -570,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +583,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -602,12 +605,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -639,22 +642,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>EC351</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC306</t>
         </is>
       </c>
     </row>
@@ -666,22 +669,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>EC301 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -701,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,27 +762,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**HS351**</t>
+          <t>**EC301**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
+          <t>Jagadish D.N</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -806,7 +809,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -816,7 +819,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -853,17 +856,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**EC301**</t>
+          <t>**EC351**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jagadish D.N</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -900,7 +903,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -910,7 +913,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -947,27 +950,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC351**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1041,47 +1044,1971 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>**HS351**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total Courses: 7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lectures: 14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[WARN] 7 issues</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total Courses: 6</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Complete: 0</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rate: 0.0%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lectures: 12</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[WARN] 6 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 4, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/7 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 60.0%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 33.0/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Jagdish R.B</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C101, C302, L403</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C102, C303, L402, L404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C104, C304, L403, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C302, C305, L402, L404, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, C102, C304, L405, L406, L407, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C102, C104, C305, L406, L407, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C004, C104, C304, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C101, C302, L403</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C102, C303, L402, L404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C104, C304, L403, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C302, C305, L402, L404, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C101, C102, C304, L405, L406, L407, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004, C102, C104, C305, L406, L407, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004, C101, C102, C104, L407, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C004, C104, C304, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C001, C003, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3248,7 +3248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3727,7 +3727,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -3786,7 +3786,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -4052,26 +4052,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -4081,12 +4081,12 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4140,12 +4140,12 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4170,22 +4170,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4196,15 +4196,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -4229,22 +4233,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4255,15 +4259,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -4288,22 +4296,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4321,12 +4329,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -4351,22 +4359,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4384,12 +4392,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -4414,22 +4422,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4447,12 +4455,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -4477,22 +4485,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4510,12 +4518,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4548,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4555,7 +4563,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4566,19 +4574,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -4598,22 +4602,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4629,19 +4633,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -4661,27 +4661,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4692,15 +4692,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -4725,22 +4729,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4751,15 +4755,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -4784,22 +4792,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -4810,15 +4818,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -4843,22 +4855,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -4876,12 +4888,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4918,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4932,19 +4944,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4977,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4995,19 +5003,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC351</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5036,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5058,19 +5062,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -5090,12 +5090,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -5149,27 +5149,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5180,15 +5180,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5217,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5232,14 +5236,18 @@
         </is>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5247,7 +5255,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5272,22 +5280,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5298,15 +5306,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -5331,22 +5343,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5364,12 +5376,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -5394,22 +5406,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5422,17 +5434,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -5457,22 +5469,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5485,17 +5497,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -5520,22 +5532,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5548,17 +5560,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -5583,22 +5595,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -5616,12 +5628,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -5646,22 +5658,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -5679,12 +5691,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5709,22 +5721,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -5742,12 +5754,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -5772,20 +5784,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -5794,19 +5810,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -5826,22 +5838,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5857,19 +5869,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5889,27 +5897,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -5922,17 +5930,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5957,22 +5965,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -5983,15 +5991,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -6016,22 +6028,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6049,12 +6061,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -6079,22 +6091,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6112,12 +6124,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -6142,22 +6154,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6170,17 +6182,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6205,22 +6217,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6233,17 +6245,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6268,22 +6280,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6301,12 +6313,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -6331,22 +6343,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -6364,12 +6376,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -6394,22 +6406,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6427,12 +6439,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6457,22 +6469,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6490,12 +6502,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -6520,7 +6532,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6546,19 +6558,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -6578,25 +6586,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
@@ -6605,19 +6617,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6645,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6652,12 +6660,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -6668,4444 +6676,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>5</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>5</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>5</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>5</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>5</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>5</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>5</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>5</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>5</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>5</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>5</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>5</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>5</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>5</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>EC306</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>5</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>5</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>5</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>5</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>5</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>5</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>5</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>EC306</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>5</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>5</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>5</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>5</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>5</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>5</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>EC351</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>5</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>EC351</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>5</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>5</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>5</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>5</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>5</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>5</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>5</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>5</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>5</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>5</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>5</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>5</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>5</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>5</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>5</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>5</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>5</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>5</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>EC365</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,59 +479,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HS351 [C204]</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS351 [L403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -543,91 +543,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS351 [C303]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -639,22 +639,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC301 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -671,32 +671,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L102]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HS351 [C303]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EC306 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L102]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C302]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -876,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -910,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1046,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1250,16 +1314,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1318,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1488,16 +1552,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1522,16 +1586,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1774,16 +1838,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1972,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,59 +2079,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HS351 [C204]</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS351 [L403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2079,91 +2143,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS351 [C303]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>EC351 [C101]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2175,22 +2239,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC301 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2207,32 +2271,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HS351 [C303]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EC306 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C302]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -2280,10 +2408,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2293,10 +2425,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2306,10 +2442,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2319,14 +2459,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2336,12 +2472,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2489,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2370,12 +2506,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2387,12 +2523,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2404,14 +2540,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2421,14 +2553,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2460,7 +2588,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2605,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2622,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2656,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2673,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2690,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2724,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2709,7 +2837,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, L102</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2884,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2810,34 +2938,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**EC351**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
@@ -2850,34 +2978,34 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C302, C101</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC351**</t>
+          <t>**HS351**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>Chandrika Kamath</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2897,146 +3025,52 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Complete: 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>Rate: 0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**HS351**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Happiness &amp; Wellbeing</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Chandrika Kamath</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C204, L403</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total Courses: 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Complete: 0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[WARN] 7 issues</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3053,7 +3087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3111,50 +3145,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Proj+AC</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC306, EC306 (Lab), EC351...</t>
+          <t>EC306, MINOR: Cybersecurity, EC301...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3162,14 +3194,12 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="C3" t="n">
+        <v>50</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3185,7 +3215,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3197,7 +3227,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3205,18 +3235,16 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="C4" t="n">
+        <v>50</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3233,7 +3261,48 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lab</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Computers+Proj</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3248,7 +3317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3322,6 +3391,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3344,22 +3418,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -3373,12 +3447,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3403,22 +3482,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -3432,12 +3511,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3462,22 +3546,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -3491,12 +3575,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3521,22 +3610,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -3550,12 +3639,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3575,27 +3669,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -3609,12 +3703,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3634,27 +3733,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -3668,12 +3767,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3693,27 +3797,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -3727,12 +3831,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3757,22 +3866,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -3786,12 +3895,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3925,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3821,17 +3935,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -3845,12 +3959,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3989,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3890,7 +4009,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -3904,12 +4023,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3929,27 +4053,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -3963,12 +4087,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>EC351</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3988,12 +4117,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4003,7 +4132,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4022,12 +4151,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>HS351</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4047,12 +4181,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4075,18 +4209,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4106,27 +4245,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4134,18 +4273,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4165,27 +4309,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4193,22 +4337,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4228,27 +4373,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4256,22 +4401,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4291,27 +4437,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4319,22 +4465,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4354,27 +4501,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4382,22 +4529,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4417,27 +4565,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4445,22 +4593,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4480,27 +4629,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4508,22 +4657,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4693,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4571,18 +4721,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4602,12 +4757,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4630,18 +4785,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4821,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4671,17 +4831,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4692,21 +4852,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4724,12 +4881,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4757,7 +4914,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4767,7 +4924,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4787,27 +4949,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -4820,17 +4982,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4850,27 +5017,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -4883,17 +5050,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4913,29 +5085,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -4944,15 +5112,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4972,7 +5149,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5003,15 +5180,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5217,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5062,15 +5248,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5090,27 +5285,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5121,15 +5316,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5149,27 +5353,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5187,12 +5391,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5212,27 +5421,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5250,12 +5459,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5275,29 +5489,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -5313,12 +5523,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5553,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5348,17 +5563,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5369,21 +5584,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5406,7 +5618,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5434,7 +5646,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -5444,7 +5656,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5469,22 +5686,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5497,17 +5714,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5532,22 +5754,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5560,17 +5782,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5595,24 +5822,20 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -5623,17 +5846,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5924,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5726,17 +5959,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -5754,12 +5987,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5784,17 +6022,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5810,15 +6048,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5838,29 +6085,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -5869,15 +6112,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5897,27 +6149,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -5930,17 +6182,22 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5960,27 +6217,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -5993,17 +6250,22 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6028,22 +6290,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6054,21 +6316,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6129,7 +6388,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6154,22 +6418,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6182,17 +6446,22 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6217,22 +6486,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6245,17 +6514,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6280,24 +6554,20 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -6308,17 +6578,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6656,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6411,17 +6691,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6439,12 +6719,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6474,17 +6759,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6502,12 +6787,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6532,24 +6822,20 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="b">
         <v>0</v>
       </c>
@@ -6558,15 +6844,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6881,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6617,15 +6912,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6645,12 +6949,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6676,15 +6980,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6699,7 +7012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6995,12 +7308,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7015,7 +7328,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -7044,120 +7357,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Happiness &amp; Wellbeing</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7237,7 +7436,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7258,11 +7457,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 4, Elective: 3</t>
+          <t>Core: 4, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7483,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/7 courses fully compliant</t>
+          <t>0/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7301,12 +7500,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>4/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 8.3%</t>
+          <t>Utilization: 25.0%</t>
         </is>
       </c>
     </row>
@@ -7323,12 +7522,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 60.0%, B: 0.0%</t>
+          <t>A: 55.6%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7549,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 33.0/100</t>
+          <t>Score: 32.3/100</t>
         </is>
       </c>
     </row>
@@ -8546,7 +8745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8624,11 +8823,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC368, DE351, EC358</t>
+          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8641,96 +8840,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -8747,7 +8856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8800,7 +8909,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8814,7 +8923,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -8835,7 +8944,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8849,7 +8958,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -8870,7 +8979,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8884,7 +8993,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -8900,26 +9009,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -8935,26 +9044,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -8970,26 +9079,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -9005,26 +9114,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -9040,26 +9149,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -9075,26 +9184,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -9110,26 +9219,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -9137,111 +9246,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404, L407</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405, L408</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004, L406</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, L408</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404, L407</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405, L408</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004, L406</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, L408</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4891,17 +4891,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5103,7 +5103,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -5119,7 +5123,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5159,19 +5163,15 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -5363,17 +5363,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5431,17 +5431,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -5499,15 +5499,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -5523,7 +5527,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -5623,17 +5627,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5651,7 +5655,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -5691,17 +5695,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5719,7 +5723,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -5759,17 +5763,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5787,7 +5791,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -5827,15 +5831,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -5851,7 +5859,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6355,17 +6363,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6383,7 +6391,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -6423,17 +6431,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6451,7 +6459,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -6491,17 +6499,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6519,7 +6527,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -6559,15 +6567,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -6583,7 +6595,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306 [C101]</t>
+          <t>EC306 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC306 [C101]</t>
+          <t>EC306 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>EC351 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 [L408]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,22 +548,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC301 [C101]</t>
+          <t>EC301 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [C101]</t>
+          <t>EC301 [L407]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C303]</t>
+          <t>HS351 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351 [C205]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,12 +654,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L102]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351 [C303]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L102]</t>
+          <t>EC351 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C302]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1974,16 +1974,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2084,27 +2084,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -2116,22 +2116,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306 [C101]</t>
+          <t>EC306 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC306 [C101]</t>
+          <t>EC306 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>EC351 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 [L408]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2148,22 +2148,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC301 [C101]</t>
+          <t>EC301 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [C101]</t>
+          <t>EC301 [L407]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C303]</t>
+          <t>HS351 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351 [C205]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351 [C303]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC351 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C302]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2340,27 +2340,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2408,14 +2408,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>L403, L405</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2425,14 +2421,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L404, L407</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2442,14 +2434,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L405, L408</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2459,10 +2447,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2472,12 +2464,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, L406</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2481,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, L408</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2498,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2515,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2540,10 +2532,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2553,10 +2549,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L403, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>L404, L407</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L405, L408</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C004, L406</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, L408</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101, L102</t>
+          <t>C004, L207</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004, L407</t>
         </is>
       </c>
     </row>
@@ -2938,27 +2938,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC351**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2978,34 +2978,34 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C302, C101</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**HS351**</t>
+          <t>**EC351**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3025,52 +3025,146 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004, L408, C002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**HS351**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C004, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total Courses: 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total Courses: 7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lectures: 10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lectures: 14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Labs: 2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[WARN] 7 issues</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3087,7 +3181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3145,24 +3239,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Proj+AC</t>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3170,36 +3261,38 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC306, MINOR: Cybersecurity, EC301...</t>
+          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3227,24 +3320,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3252,40 +3347,42 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351, EC301, EC301 (Tutorial)...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lab</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Computers+Proj</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3297,12 +3394,141 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>EC306 (Lab)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3353,47 +3579,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3423,42 +3659,46 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3487,42 +3727,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>EC306</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3551,42 +3799,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>EC301</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3615,42 +3871,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>EC301 (Tutorial)</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3674,47 +3938,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3738,47 +4010,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3797,52 +4073,56 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3866,47 +4146,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3930,47 +4218,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3994,47 +4290,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4058,47 +4362,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4122,47 +4434,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4181,52 +4497,56 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4245,52 +4565,60 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4314,47 +4642,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4378,47 +4714,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4437,52 +4777,56 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4501,52 +4845,60 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4570,47 +4922,55 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4639,42 +4999,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4703,42 +5067,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4767,42 +5135,46 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4826,44 +5198,56 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4891,46 +5275,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4959,46 +5351,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5027,46 +5427,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5095,46 +5503,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5163,42 +5579,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5217,56 +5645,64 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5295,46 +5731,50 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5363,46 +5803,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5431,46 +5879,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5489,56 +5945,64 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5557,7 +6021,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5567,39 +6031,51 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5627,46 +6103,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5695,46 +6179,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5758,51 +6250,55 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5826,51 +6322,59 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5899,46 +6403,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5967,46 +6479,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6035,46 +6555,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6103,42 +6631,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6157,56 +6697,64 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6225,56 +6773,60 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6298,44 +6850,60 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6363,46 +6931,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -6426,51 +7002,55 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -6494,51 +7074,59 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -6562,51 +7150,59 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -6635,46 +7231,54 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -6703,46 +7307,54 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6771,246 +7383,54 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
+      <c r="P53" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7024,7 +7444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7320,55 +7740,169 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>HS351</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>3-0-0-0-3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>3/0/0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2/0/0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0/0/0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[WARN] PARTIAL</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7448,7 +7982,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 12:24</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7469,11 +8003,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 4, Elective: 1</t>
+          <t>Core: 4, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -7495,7 +8029,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/5 courses fully compliant</t>
+          <t>0/7 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7512,12 +8046,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4/16</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 25.0%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
@@ -7534,12 +8068,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>34.4%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 55.6%, B: 0.0%</t>
+          <t>A: 68.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7561,7 +8095,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 32.3/100</t>
+          <t>Score: 34.3/100</t>
         </is>
       </c>
     </row>
@@ -8757,7 +9291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8835,11 +9369,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+          <t>EC368, DE351, EC358</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8852,6 +9386,96 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -8868,7 +9492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8921,7 +9545,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8935,7 +9559,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -8956,7 +9580,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8970,7 +9594,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -8991,7 +9615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9005,7 +9629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -9021,26 +9645,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -9056,26 +9680,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -9091,26 +9715,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -9126,26 +9750,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -9161,26 +9785,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -9196,26 +9820,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -9231,26 +9855,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -9258,6 +9882,111 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC351 [L408]</t>
+          <t>EC351 [C002]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [L407]</t>
+          <t>EC301 [L408]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS351 [C205]</t>
+          <t>HS351 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C002]</t>
+          <t>EC351 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1974,16 +1974,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC351 [L408]</t>
+          <t>EC351 [C002]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [L407]</t>
+          <t>EC301 [L408]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS351 [C205]</t>
+          <t>HS351 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C002]</t>
+          <t>EC351 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L207</t>
+          <t>C004, L106</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L407</t>
+          <t>C004, L408</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, L408, C002</t>
+          <t>C004, C303, C002</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C205</t>
+          <t>C004, C202</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
+          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC351, EC301, EC301 (Tutorial)...</t>
+          <t>EC351, EC301 (Tutorial), HS351...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3406,26 +3406,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3437,38 +3437,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3480,12 +3480,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3948,17 +3948,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3972,7 +3972,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4252,7 +4252,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4324,7 +4324,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4396,7 +4396,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4860,17 +4860,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4884,7 +4884,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -4956,7 +4956,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5280,12 +5280,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5660,17 +5660,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5736,15 +5736,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -5760,7 +5764,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5808,12 +5812,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5836,7 +5840,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5894,7 +5898,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5912,7 +5916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5960,17 +5964,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5988,7 +5992,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6036,15 +6040,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -6060,7 +6068,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6108,12 +6116,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6136,7 +6144,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6194,7 +6202,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6212,7 +6220,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6332,12 +6340,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6360,7 +6368,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6418,7 +6426,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6436,7 +6444,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6494,7 +6502,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6512,7 +6520,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6570,7 +6578,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6588,7 +6596,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6712,17 +6720,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -6740,7 +6748,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6788,15 +6796,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -6812,7 +6824,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6860,12 +6872,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -6888,7 +6900,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6946,7 +6958,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -6964,7 +6976,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7084,12 +7096,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -7112,7 +7124,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7170,7 +7182,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7188,7 +7200,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7246,7 +7258,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -7264,7 +7276,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7322,7 +7334,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -7340,7 +7352,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7982,7 +7994,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8110,7 +8122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9205,78 +9217,6 @@
       <c r="P15" t="inlineStr">
         <is>
           <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>HS101</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Environmental Studies</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0-0-0-8-2</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Aswath Babu H</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_pre_mid_timetable.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [L408]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C002]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C004]</t>
+          <t>HS351 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS351 [C202]</t>
+          <t>HS351 [C203]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C303]</t>
+          <t>EC351 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>21.25</v>
+        <v>6.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2084,27 +2084,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [L408]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C002]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2158,12 +2158,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C004]</t>
+          <t>HS351 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS351 [C202]</t>
+          <t>HS351 [C203]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C303]</t>
+          <t>EC351 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2340,27 +2340,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L106</t>
+          <t>C002, L206, L408</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, C303, C002</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C202</t>
+          <t>C203, C202</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3239,7 +3239,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3252,8 +3252,13 @@
           <t>120</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3261,42 +3266,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
+          <t>EC351, EC306</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3304,42 +3309,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301 (Tutorial), EC301</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3351,19 +3356,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC351, EC301 (Tutorial), HS351...</t>
+          <t>MINOR: Generative Ai, MINOR: Design, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3394,7 +3399,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3406,7 +3411,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3421,7 +3426,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -3437,7 +3442,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3449,26 +3454,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3480,38 +3485,38 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -3523,12 +3528,55 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>EC301, EC306</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3664,15 +3712,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -3684,7 +3736,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3732,17 +3784,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -3756,7 +3808,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3958,7 +4010,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3972,7 +4024,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4020,15 +4072,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -4040,7 +4096,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4088,15 +4144,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -4108,7 +4168,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4156,17 +4216,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4180,7 +4240,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4300,7 +4360,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4310,7 +4370,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -4324,7 +4384,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4372,7 +4432,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4382,7 +4442,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4396,7 +4456,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4444,15 +4504,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -4464,7 +4528,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4512,15 +4576,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -4532,7 +4600,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4580,17 +4648,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4604,7 +4672,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4652,17 +4720,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4676,7 +4744,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4724,15 +4792,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -4744,7 +4816,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4792,15 +4864,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -4812,7 +4888,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4942,7 +5018,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -4956,7 +5032,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5004,15 +5080,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -5024,7 +5104,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5072,15 +5152,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -5092,7 +5176,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5140,15 +5224,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -5160,7 +5248,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5208,15 +5296,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -5232,7 +5324,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5308,7 +5400,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5366,7 +5458,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5384,7 +5476,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5442,7 +5534,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5460,7 +5552,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5536,7 +5628,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5594,7 +5686,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5612,7 +5704,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5688,7 +5780,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5764,7 +5856,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5840,7 +5932,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5898,7 +5990,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5916,7 +6008,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5992,7 +6084,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6068,7 +6160,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6144,7 +6236,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6202,7 +6294,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6220,7 +6312,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6268,15 +6360,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
@@ -6292,7 +6388,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6368,7 +6464,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6426,7 +6522,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6444,7 +6540,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6502,7 +6598,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6520,7 +6616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6596,7 +6692,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6654,7 +6750,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -6672,7 +6768,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6748,7 +6844,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6824,7 +6920,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6900,7 +6996,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6958,7 +7054,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -6976,7 +7072,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7024,15 +7120,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7048,7 +7148,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7124,7 +7224,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7182,7 +7282,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7200,7 +7300,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7258,7 +7358,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -7276,7 +7376,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7352,7 +7452,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7410,7 +7510,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -7428,7 +7528,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7994,7 +8094,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8058,12 +8158,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
